--- a/src/data/roteiro.xlsx
+++ b/src/data/roteiro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matheus.rossi\Documents\quasar\lean-app\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2DB13F-9B79-4D79-81F4-76BA583DED86}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FD5739A-CDB5-4F03-95CF-055225B569E2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{79507F9C-91F9-4D15-AB37-7A21D05358D7}"/>
   </bookViews>
@@ -1516,7 +1516,7 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/data/roteiro.xlsx
+++ b/src/data/roteiro.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matheus.rossi\Documents\quasar\lean-app\src\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\OneDrive\Documentos\Quasar\lean-app\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FD5739A-CDB5-4F03-95CF-055225B569E2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="114_{22C91212-0360-4A75-ACE8-68C1D3D69749}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{79507F9C-91F9-4D15-AB37-7A21D05358D7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15990" activeTab="1" xr2:uid="{79507F9C-91F9-4D15-AB37-7A21D05358D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="4" r:id="rId1"/>
@@ -1515,8 +1515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9011905E-58BE-4EB2-9B8A-036004FEA090}">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2286,9 +2286,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B5F6738-396F-43F4-8B7B-9868BF8E6F76}">
   <dimension ref="A1:I620"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
